--- a/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
+++ b/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
@@ -15,17 +15,17 @@
   <sheets>
     <sheet name="cal_supply-processing" r:id="rId17" sheetId="854"/>
     <sheet name="cal_unfccc-land-based-..." r:id="rId25" sheetId="880"/>
-    <sheet name="cal_supply-food" r:id="rId28" sheetId="1273"/>
-    <sheet name="cal_production-process..." r:id="rId16" sheetId="1274"/>
-    <sheet name="cal_production-livestock" r:id="rId18" sheetId="1275"/>
-    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="1276"/>
-    <sheet name="cal_supply-feed" r:id="rId20" sheetId="1277"/>
-    <sheet name="cal_supply-crops" r:id="rId24" sheetId="1278"/>
-    <sheet name="cal_production-crops" r:id="rId26" sheetId="1279"/>
-    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="1280"/>
-    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="1281"/>
-    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="1282"/>
-    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="1283"/>
+    <sheet name="cal_supply-food" r:id="rId28" sheetId="1286"/>
+    <sheet name="cal_production-process..." r:id="rId16" sheetId="1287"/>
+    <sheet name="cal_production-crops" r:id="rId26" sheetId="1292"/>
+    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="1293"/>
+    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="1294"/>
+    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="1295"/>
+    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="1296"/>
+    <sheet name="cal_production-livestock" r:id="rId18" sheetId="1297"/>
+    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="1298"/>
+    <sheet name="cal_supply-feed" r:id="rId20" sheetId="1299"/>
+    <sheet name="cal_supply-crops" r:id="rId24" sheetId="1300"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -556,7 +556,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1273.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1286.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AP3"/>
   <sheetViews>
@@ -1035,7 +1035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1274.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1287.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:X3"/>
   <sheetViews>
@@ -1172,19 +1172,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.056950899716190384</v>
+        <v>-0.08135492466819694</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.026605097891459595</v>
+        <v>-0.033397781806031146</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.04813363517184721</v>
+        <v>-0.04000748828977574</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05690892839719397</v>
+        <v>-0.06326196806663376</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05556526450688826</v>
+        <v>-0.04275760941444451</v>
       </c>
       <c r="H2" t="n">
         <v>-0.033116914327626534</v>
@@ -1196,43 +1196,43 @@
         <v>0.11261716218922158</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.06739017864602781</v>
+        <v>-0.05259403993325962</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.1171200691422376</v>
+        <v>-0.10097291331017155</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.12810770115216175</v>
+        <v>-0.0989521499818381</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.11134488577304635</v>
+        <v>-0.10196714983031341</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.06573184052744685</v>
+        <v>-0.046569990663016925</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1224792161767112</v>
+        <v>-0.02130691336507995</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.027683699158194908</v>
+        <v>-0.04378298983237783</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.09173306393937819</v>
+        <v>-0.07981504957453167</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0709397525758878</v>
+        <v>-0.08950315745601667</v>
       </c>
       <c r="T2" t="n">
-        <v>0.13083182683229633</v>
+        <v>0.0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09724668340013864</v>
+        <v>-6.661338147750939E-16</v>
       </c>
       <c r="V2" t="n">
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05161819832436465</v>
+        <v>-4.440892098500626E-16</v>
       </c>
     </row>
     <row r="3">
@@ -1247,19 +1247,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.030163849261900633</v>
+        <v>-0.04546804605336752</v>
       </c>
       <c r="D3" t="n">
         <v>-0.042877085687884176</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.052417636430920456</v>
+        <v>-0.042901042715904</v>
       </c>
       <c r="F3" t="n">
         <v>-0.03196115132241262</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1369254729817022</v>
+        <v>-0.042804819666827254</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1271,31 +1271,31 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.07641182823809678</v>
+        <v>-0.08599024122076604</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.07385470226110102</v>
+        <v>-0.08614439035712751</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0994687737971357</v>
+        <v>-0.08601668002118235</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.08993469538987753</v>
+        <v>-0.08601571889403714</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.05096662074739888</v>
+        <v>-0.08734525400946358</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.08247645415567884</v>
+        <v>-0.05184791586869075</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.030979205965542378</v>
+        <v>-0.042911087182173846</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1315116323525889</v>
+        <v>-0.08579977265851713</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.09407781107150659</v>
+        <v>-0.07910944920671703</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -1307,7 +1307,7 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.25094964587943114</v>
+        <v>-4.440892098500626E-16</v>
       </c>
     </row>
   </sheetData>
@@ -1316,7 +1316,884 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1275.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1292.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>row ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coffee-and-products[t]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>cocoa-beans-and-products[t]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tea-including-mate[t]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>tobacco[t]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>rubber[t]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>fibre-crops[t]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>wheat-and-products[t]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>barley-and-products[t]</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>maize-and-products[t]</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>rye-and-products[t]</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>cereal-others[t]</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>rape-and-mustardseed[t]</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>sunflower-seed[t]</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>soyabeans[t]</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>palm[t]</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>oilcrop-others[t]</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>olives-including-preserved[t]</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>fruits-excluding-wine[t]</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>vegetables[t]</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>starchy-roots[t]</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>pulses[t]</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>sugar-crops[t]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eu27</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.13083182683229588</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05161819832436465</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-9.992007221626409E-16</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.1102230246251565E-15</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Row1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2509496458794316</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.440892098500626E-16</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-9.992007221626409E-16</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1293.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>row ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coffee-and-products[ha]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>tea-including-mate[ha]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tobacco[ha]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>wheat-and-products[ha]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>barley-and-products[ha]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>maize-and-products[ha]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>rye-and-products[ha]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>cereal-others[ha]</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>rape-and-mustardseed[ha]</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>sunflower-seed[ha]</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>soyabeans[ha]</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>oilcrop-others[ha]</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>olives-including-preserved[ha]</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>vegetables[ha]</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>starchy-roots[ha]</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>pulses[ha]</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>sugar-crops[ha]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eu27</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.3735134703374673</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.3342757712744998</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.024606876580121173</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.022542352781669828</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.020678964915024745</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.020729422022438437</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.8138156898010382</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.9904661749196673</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.09871546681520715</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.10195906008251332</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.9986488800701694</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.09480583556892563</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.27811792555727477</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2082372239516792</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.21721738888020803</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.21004368071034574</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Row1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.020056130176822506</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.020323246588580424</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.021109318845420333</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.12271874918570858</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.20147054096703987</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.20000000000000062</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.1762490606040057</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.1972105622111351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1294.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>row ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>land-under-permanent-meadows-and-pastures[ha]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>cropland[ha]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eu27</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.03320910134111543</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05599936394272387</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Row1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.007481157173589992</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.0015120616726993497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1295.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>row ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>rice-cultivation[t]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>burnt-residues[t]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>burnt-residues[t] (#1)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>cropland[t]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>grassland[t]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cropland[t] (#1)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>grassland[t] (#1)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>urea-application[t]</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>other-synthetic-fertilizers[t]</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>liming[t]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eu27</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>151.28430045037214</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.08721458094251366</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.08718064147447058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08983292683158006</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.805842329495351</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2102614911571743</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Row1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.05515473596600606</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.05500622724525894</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.08799699993471877</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.08138711316981495</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.007036641557156997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1296.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>row ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>cropland[tC]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>meadows-and-pastures[tC]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>forest-land[tC]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>wetland[tC]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>artificial-land[tC]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>other-land[tC]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eu27</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04929000839123354</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25170361270751473</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.1276522922935165</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.40212111050586996</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.07775774560324789</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.04125155686221005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Row1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.00950937974071897</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.0075117008183404055</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.054699274100924455</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.2951858395535716E-4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.0639356173847148E-7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1297.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1388,28 +2265,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.3314104482140564</v>
+        <v>-0.3913445141389199</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.220446049250313E-16</v>
+        <v>0.016395932558842752</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00575996473971907</v>
+        <v>-0.10973933480682108</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.15805880067818512</v>
+        <v>-0.1754699085610265</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>-0.010727883810950689</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>-0.016033470280737205</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.661338147750939E-16</v>
+        <v>-0.033258752329006325</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.10445929432288736</v>
+        <v>-0.10915359341856834</v>
       </c>
     </row>
     <row r="3">
@@ -1427,25 +2304,25 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.551115123125783E-16</v>
+        <v>0.013497106739607023</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.8591738270012925E-6</v>
+        <v>-0.031912371127142625</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.440892098500626E-16</v>
+        <v>0.04120981175284699</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.551115123125783E-16</v>
+        <v>-0.003497278148203886</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.440892098500626E-16</v>
+        <v>0.011479341354053041</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.661338147750939E-16</v>
+        <v>-0.014074841385827819</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.661338147750939E-16</v>
+        <v>0.014506613110546462</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +2331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1276.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1298.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -1475,192 +2352,192 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>livestock-enteric-fermentation-ch4-emissions_dairy-mutton-&amp;-goats[t]</t>
+          <t>dairy-mutton-&amp;-goats[t]</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>livestock-enteric-fermentation-ch4-emissions_other-animals[t]</t>
+          <t>other-animals[t]</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>livestock-enteric-fermentation-ch4-emissions_pigs[t]</t>
+          <t>pigs[t]</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>livestock-enteric-fermentation-ch4-emissions_dairy-cattle[t]</t>
+          <t>dairy-cattle[t]</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>livestock-enteric-fermentation-ch4-emissions_non-dairy-cattle[t]</t>
+          <t>non-dairy-cattle[t]</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>livestock-enteric-fermentation-ch4-emissions_mutton-&amp;-goats[t]</t>
+          <t>mutton-&amp;-goats[t]</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>livestock-manure-left-on-pasture-n2o-emissions_dairy-mutton-&amp;-goats[t]</t>
+          <t>dairy-mutton-&amp;-goats[t] (#1)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>livestock-manure-left-on-pasture-n2o-emissions_other-animals[t]</t>
+          <t>other-animals[t] (#1)</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>livestock-manure-left-on-pasture-n2o-emissions_broilers-poultry[t]</t>
+          <t>broilers-poultry[t]</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>livestock-manure-left-on-pasture-n2o-emissions_dairy-cattle[t]</t>
+          <t>dairy-cattle[t] (#1)</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>livestock-manure-left-on-pasture-n2o-emissions_non-dairy-cattle[t]</t>
+          <t>non-dairy-cattle[t] (#1)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>livestock-manure-left-on-pasture-n2o-emissions_laying-poultry[t]</t>
+          <t>laying-poultry[t]</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>livestock-manure-left-on-pasture-n2o-emissions_mutton-&amp;-goats[t]</t>
+          <t>mutton-&amp;-goats[t] (#1)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>livestock-manure-left-on-pasture-n2o-emissions_pigs[t]</t>
+          <t>pigs[t] (#1)</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>livestock-manure-applied-to-soils-n2o-emissions_dairy-mutton-&amp;-goats[t]</t>
+          <t>dairy-mutton-&amp;-goats[t] (#2)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>livestock-manure-applied-to-soils-n2o-emissions_other-animals[t]</t>
+          <t>other-animals[t] (#2)</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>livestock-manure-applied-to-soils-n2o-emissions_broilers-poultry[t]</t>
+          <t>broilers-poultry[t] (#1)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>livestock-manure-applied-to-soils-n2o-emissions_dairy-cattle[t]</t>
+          <t>dairy-cattle[t] (#2)</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>livestock-manure-applied-to-soils-n2o-emissions_non-dairy-cattle[t]</t>
+          <t>non-dairy-cattle[t] (#2)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>livestock-manure-applied-to-soils-n2o-emissions_laying-poultry[t]</t>
+          <t>laying-poultry[t] (#1)</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>livestock-manure-applied-to-soils-n2o-emissions_mutton-&amp;-goats[t]</t>
+          <t>mutton-&amp;-goats[t] (#2)</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>livestock-manure-applied-to-soils-n2o-emissions_pigs[t]</t>
+          <t>pigs[t] (#2)</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-n2o-emissions_dairy-mutton-&amp;-goats[t]</t>
+          <t>dairy-mutton-&amp;-goats[t] (#3)</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-n2o-emissions_other-animals[t]</t>
+          <t>other-animals[t] (#3)</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-n2o-emissions_broilers-poultry[t]</t>
+          <t>broilers-poultry[t] (#2)</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-n2o-emissions_dairy-cattle[t]</t>
+          <t>dairy-cattle[t] (#3)</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-n2o-emissions_non-dairy-cattle[t]</t>
+          <t>non-dairy-cattle[t] (#3)</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-n2o-emissions_laying-poultry[t]</t>
+          <t>laying-poultry[t] (#2)</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-n2o-emissions_mutton-&amp;-goats[t]</t>
+          <t>mutton-&amp;-goats[t] (#3)</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-n2o-emissions_pigs[t]</t>
+          <t>pigs[t] (#3)</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-ch4-emissions_dairy-mutton-&amp;-goats[t]</t>
+          <t>dairy-mutton-&amp;-goats[t] (#4)</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-ch4-emissions_laying-poultry[t]</t>
+          <t>laying-poultry[t] (#3)</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-ch4-emissions_dairy-cattle[t]</t>
+          <t>dairy-cattle[t] (#4)</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-ch4-emissions_other-animals[t]</t>
+          <t>other-animals[t] (#4)</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-ch4-emissions_broilers-poultry[t]</t>
+          <t>broilers-poultry[t] (#3)</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-ch4-emissions_non-dairy-cattle[t]</t>
+          <t>non-dairy-cattle[t] (#4)</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-ch4-emissions_pigs[t]</t>
+          <t>pigs[t] (#4)</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>livestock-manure-treated-ch4-emissions_mutton-&amp;-goats[t]</t>
+          <t>mutton-&amp;-goats[t] (#4)</t>
         </is>
       </c>
     </row>
@@ -1703,13 +2580,13 @@
         <v>-8.881784197001252E-16</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.440892098500626E-16</v>
+        <v>-5.551115123125783E-16</v>
       </c>
       <c r="M2" t="n">
         <v>-1.4432899320127035E-15</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.992007221626409E-16</v>
+        <v>-8.881784197001252E-16</v>
       </c>
       <c r="O2" t="n">
         <v>0.12491696756374826</v>
@@ -1730,7 +2607,7 @@
         <v>0.0</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.2212453270876722E-15</v>
+        <v>-1.1102230246251565E-15</v>
       </c>
       <c r="V2" t="n">
         <v>-4.440892098500626E-16</v>
@@ -1739,7 +2616,7 @@
         <v>0.12491696756374804</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.220446049250313E-16</v>
+        <v>-4.440892098500626E-16</v>
       </c>
       <c r="Y2" t="n">
         <v>0.0</v>
@@ -1757,7 +2634,7 @@
         <v>-9.992007221626409E-16</v>
       </c>
       <c r="AD2" t="n">
-        <v>-6.661338147750939E-16</v>
+        <v>-4.440892098500626E-16</v>
       </c>
       <c r="AE2" t="n">
         <v>0.12491696756374804</v>
@@ -1814,7 +2691,7 @@
         <v>-6.661338147750939E-16</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.992007221626409E-16</v>
+        <v>-6.661338147750939E-16</v>
       </c>
       <c r="H3" t="n">
         <v>-4.440892098500626E-16</v>
@@ -1823,7 +2700,7 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="K3" t="n">
         <v>-4.440892098500626E-16</v>
@@ -1901,13 +2778,13 @@
         <v>-4.440892098500626E-16</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="AK3" t="n">
         <v>-4.440892098500626E-16</v>
       </c>
       <c r="AL3" t="n">
-        <v>-9.992007221626409E-16</v>
+        <v>-6.661338147750939E-16</v>
       </c>
       <c r="AM3" t="n">
         <v>0.0</v>
@@ -1922,7 +2799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1277.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1299.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AP3"/>
   <sheetViews>
@@ -2401,1269 +3278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1278.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>row ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>barley-and-products[t]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>beer[t]</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>beverages-alcoholic[t]</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>beverages-fermented[t]</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>cake-others[t]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>cereal-others[t]</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>cocoa-beans-and-products[t]</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>coffee-and-products[t]</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>fibre-crops[t]</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>fruits-excluding-wine[t]</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>maize-and-products[t]</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>molasses[t]</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>nuts-and-products[t]</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>oilcrop-others[t]</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>olive-oil[t]</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>olives-including-preserved[t]</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>palm[t]</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>palm-cake[t]</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>palm-oil[t]</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>pulses[t]</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>rape-and-mustard-cake[t]</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>rape-and-mustard-oil[t]</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>rape-and-mustardseed[t]</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>rice-milled-equivalent[t]</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>rubber[t]</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>rye-and-products[t]</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>soyabean-cake[t]</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>soyabean-oil[t]</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>soyabeans[t]</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>starchy-roots[t]</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>sugar-&amp;-sweeteners[t]</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>sugar-crops[t]</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>sunflower-seed[t]</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>sunflowerseed-cake[t]</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>sunflowerseed-oil[t]</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>tea-including-mate[t]</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>tobacco[t]</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>vegetable-oil-others[t]</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>vegetables[t]</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>wheat-and-products[t]</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>wine[t]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Row0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eu27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.03193411971117499</v>
-      </c>
-      <c r="D2" t="n">
-        <v>379.291930547415</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.547252821573421</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.4963130287627273</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.333717015869158E-4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.1441214409570486</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.03432632423985238</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.4835451184536831</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-0.05000222434474444</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.11148238858171222</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.683651363825907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.10583560064059527</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.1980077883480766</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.13398602075609256</v>
-      </c>
-      <c r="R2" t="n">
-        <v>13.921061110266969</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-0.9551702146194972</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.05188404387029433</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3.445596432166189</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-0.009339959556299626</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-0.02100652475034781</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.5269167873187985</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-0.19386789227315293</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.4130337412749694</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-0.5000238762597996</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.053959745935542314</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.09146312636719256</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.2004832832437744</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.19010503629316033</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-0.00803857654843032</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>5.436818314960344</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.017356354216144565</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>-0.04982547596097586</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.0818102682376578</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.2649475253792757</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>-0.3596583006091316</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>-0.6139650446829257</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>8.7663455093264</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>-0.02570587636576982</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.055196252408408863</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>4.427238639477488</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05516988561179326</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.7554585825905535</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.5246225157788929</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.004981027652484538</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.2819611780126956</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.021455670744435773</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.15040846692985688</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.4431604256840487</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.9468175105144698</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.25310026904247374</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.14061790697366572</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.06386529153483855</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.024117269127723273</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.21987452220071557</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.044943483219747504</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6.949703605892745</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-0.015890190847586028</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.04229425339616988</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.17155137699376777</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>-0.05824890535811289</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.38859500109927514</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>-0.5000000000000002</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.02214992186444209</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.056064928152461224</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-0.09893301399908738</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-0.05141415284722384</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-0.02180963576475592</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>3.268505045787112</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>-2.9827411891503175E-6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>-0.26839565212303285</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.11318588116883754</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.5598240141671182</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>-0.06610028118546041</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>-0.6392940020246997</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>495.26680767895624</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>-0.03590976406483015</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.09179134419552404</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1279.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>row ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>coffee-and-products[t]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>cocoa-beans-and-products[t]</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>tea-including-mate[t]</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>tobacco[t]</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>rubber[t]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>fibre-crops[t]</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>wheat-and-products[t]</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>barley-and-products[t]</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>maize-and-products[t]</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>rye-and-products[t]</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>cereal-others[t]</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>rape-and-mustardseed[t]</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>sunflower-seed[t]</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>soyabeans[t]</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>palm[t]</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>oilcrop-others[t]</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>olives-including-preserved[t]</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>fruits-excluding-wine[t]</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>vegetables[t]</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>starchy-roots[t]</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>pulses[t]</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>sugar-crops[t]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Row0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eu27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-9.992007221626409E-16</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-1.1102230246251565E-15</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.440892098500626E-16</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-9.992007221626409E-16</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1280.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>row ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>coffee-and-products[ha]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>tea-including-mate[ha]</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>tobacco[ha]</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>wheat-and-products[ha]</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>barley-and-products[ha]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>maize-and-products[ha]</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>rye-and-products[ha]</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>cereal-others[ha]</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>rape-and-mustardseed[ha]</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>sunflower-seed[ha]</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>soyabeans[ha]</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>oilcrop-others[ha]</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>olives-including-preserved[ha]</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>vegetables[ha]</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>starchy-roots[ha]</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>pulses[ha]</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>sugar-crops[ha]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Row0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eu27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.3735134703374673</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.3342757712744998</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.024606876580121173</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.022542352781669828</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.020678964915024745</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.020729422022438437</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.8138156898010382</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.9904661749196673</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-0.09871546681520715</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.10195906008251332</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-0.9986488800701694</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.09480583556892563</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-0.27811792555727477</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.2082372239516792</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-0.21721738888020803</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-0.21004368071034574</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.020056130176822506</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.020323246588580424</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.021109318845420333</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.12271874918570858</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-0.20147054096703987</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.20000000000000062</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.1762490606040057</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.1972105622111351</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1281.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>row ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>land-under-permanent-meadows-and-pastures[ha]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>cropland[ha]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Row0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eu27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.0242610058252527</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05209817033754138</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.014846069157115394</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.01037296153621603</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1282.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>row ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>rice-cultivation[t]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>burnt-residues[t]</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>burnt-residues[t] (#1)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>cropland[t]</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>grassland[t]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>cropland[t] (#1)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>grassland[t] (#1)</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>urea-application[t]</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>other-synthetic-fertilizers[t]</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>liming[t]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Row0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eu27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>151.28430045037214</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.08721458094251366</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.08718064147447058</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.08863872005529538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.805842329495351</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.20893746351582654</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.05515473596600606</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.05500622724525894</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.08032613855839299</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.08138711316981495</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.001602883521123033</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1283.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1300.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3684,32 +3299,207 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>cropland[tC]</t>
+          <t>barley-and-products[t]</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>meadows-and-pastures[tC]</t>
+          <t>beer[t]</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>forest-land[tC]</t>
+          <t>beverages-alcoholic[t]</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wetland[tC]</t>
+          <t>beverages-fermented[t]</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>artificial-land[tC]</t>
+          <t>cake-others[t]</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>other-land[tC]</t>
+          <t>cereal-others[t]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>cocoa-beans-and-products[t]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>coffee-and-products[t]</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>fibre-crops[t]</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>fruits-excluding-wine[t]</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>maize-and-products[t]</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>molasses[t]</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>nuts-and-products[t]</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oilcrop-others[t]</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>olive-oil[t]</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>olives-including-preserved[t]</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>palm[t]</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>palm-cake[t]</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>palm-oil[t]</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>pulses[t]</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>rape-and-mustard-cake[t]</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>rape-and-mustard-oil[t]</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>rape-and-mustardseed[t]</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>rice-milled-equivalent[t]</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>rubber[t]</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>rye-and-products[t]</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>soyabean-cake[t]</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>soyabean-oil[t]</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>soyabeans[t]</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>starchy-roots[t]</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>sugar-&amp;-sweeteners[t]</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>sugar-crops[t]</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>sunflower-seed[t]</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>sunflowerseed-cake[t]</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>sunflowerseed-oil[t]</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>tea-including-mate[t]</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>tobacco[t]</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>vegetable-oil-others[t]</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>vegetables[t]</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>wheat-and-products[t]</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>wine[t]</t>
         </is>
       </c>
     </row>
@@ -3725,22 +3515,127 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.05106043636017121</v>
+        <v>-0.03271129143151519</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23798312500713492</v>
+        <v>379.291930547415</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.12630425549653956</v>
+        <v>2.547252821573421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.40212111050586996</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07775774560324789</v>
+        <v>0.13155667045532105</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04125155686221005</v>
+        <v>0.0018654267416846615</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.1441214409570486</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.03432632423985238</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.4835451184536831</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.05000222434474444</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11637842730523973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.683651363825907</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.10583560064059527</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.1980077883480766</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.13398602075609256</v>
+      </c>
+      <c r="R2" t="n">
+        <v>13.921061110266969</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.9551702146194972</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.05188404387029433</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.445596432166189</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.009339959556299626</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.02100652475034781</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.5269167873187985</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>18.484101815408646</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.4130337412749694</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.5000238762597996</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.054281259554716854</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.09146312636719256</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2004832832437744</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>12.847318631060133</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.00803857654843032</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.436818314960344</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.04698965133471922</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12.652944038929292</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0818102682376578</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.2649475253792757</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.3596583006091316</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.6139650446829257</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>13.030998940988528</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.02570587636576982</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.05875152898025626</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>4.427238639477488</v>
       </c>
     </row>
     <row r="3">
@@ -3755,21 +3650,126 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-5.98092797510219E-10</v>
+        <v>0.05315145382390374</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.2495203477745918E-8</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.119231972245842E-7</v>
+        <v>5.7554585825905535</v>
       </c>
       <c r="F3" t="n">
-        <v>3.2951858395535716E-4</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.0639356173847148E-7</v>
+        <v>-0.3048957845500355</v>
       </c>
       <c r="H3" t="n">
+        <v>-0.004981027652484538</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.2819611780126956</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.021455670744435773</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.15040846692985688</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.4431604256840487</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9468175105144698</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.25310026904247374</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.14061790697366572</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.06386529153483855</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.024117269127723273</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.21987452220071557</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.044943483219747504</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.949703605892745</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.015890190847586028</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.04229425339616988</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.17155137699376777</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13.731958288818086</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.38859500109927514</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.5000000000000002</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.02214992186444209</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.056064928152461224</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.09893301399908738</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11.042249826885733</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.02180963576475592</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3.268505045787112</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.017145285006398447</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.1514346311623997</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.11318588116883754</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.5598240141671182</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.06610028118546041</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.6392940020246997</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>94.64192892343424</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.03590976406483015</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.09179134419552404</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
+++ b/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
@@ -15,17 +15,17 @@
   <sheets>
     <sheet name="cal_supply-processing" r:id="rId17" sheetId="854"/>
     <sheet name="cal_unfccc-land-based-..." r:id="rId25" sheetId="880"/>
-    <sheet name="cal_supply-food" r:id="rId28" sheetId="1286"/>
-    <sheet name="cal_production-process..." r:id="rId16" sheetId="1287"/>
-    <sheet name="cal_production-crops" r:id="rId26" sheetId="1292"/>
-    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="1293"/>
-    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="1294"/>
-    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="1295"/>
-    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="1296"/>
-    <sheet name="cal_production-livestock" r:id="rId18" sheetId="1297"/>
-    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="1298"/>
-    <sheet name="cal_supply-feed" r:id="rId20" sheetId="1299"/>
-    <sheet name="cal_supply-crops" r:id="rId24" sheetId="1300"/>
+    <sheet name="cal_supply-food" r:id="rId28" sheetId="1308"/>
+    <sheet name="cal_production-process..." r:id="rId16" sheetId="1309"/>
+    <sheet name="cal_production-livestock" r:id="rId18" sheetId="1321"/>
+    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="1322"/>
+    <sheet name="cal_supply-feed" r:id="rId20" sheetId="1323"/>
+    <sheet name="cal_supply-crops" r:id="rId24" sheetId="1324"/>
+    <sheet name="cal_production-crops" r:id="rId26" sheetId="1325"/>
+    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="1326"/>
+    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="1327"/>
+    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="1328"/>
+    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="1329"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -556,7 +556,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1286.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1308.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AP3"/>
   <sheetViews>
@@ -1035,7 +1035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1287.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1309.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:X3"/>
   <sheetViews>
@@ -1316,7 +1316,1593 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1292.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1321.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>row ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dairy-mutton-&amp;-goats[lsu]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>laying-poultry[lsu]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>dairy-cattle[lsu]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>other-animals[lsu]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>broilers-poultry[lsu]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>non-dairy-cattle[lsu]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pigs[lsu]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>mutton-&amp;-goats[lsu]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eu27</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.3913445141389199</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.016395932558842752</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.10973933480682108</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1754699085610265</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.010727883810950689</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.016033470280737205</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.033258752329006325</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.10915359341856834</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Row1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.013497106739607023</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.031912371127142625</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04120981175284699</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.003497278148203886</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.011479341354053041</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.014074841385827819</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.014506613110546462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1322.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>row ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dairy-mutton-&amp;-goats[t]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>other-animals[t]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pigs[t]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dairy-cattle[t]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>non-dairy-cattle[t]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>mutton-&amp;-goats[t]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>dairy-mutton-&amp;-goats[t] (#1)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>other-animals[t] (#1)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>broilers-poultry[t]</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dairy-cattle[t] (#1)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>non-dairy-cattle[t] (#1)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>laying-poultry[t]</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>mutton-&amp;-goats[t] (#1)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>pigs[t] (#1)</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>dairy-mutton-&amp;-goats[t] (#2)</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>other-animals[t] (#2)</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>broilers-poultry[t] (#1)</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>dairy-cattle[t] (#2)</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>non-dairy-cattle[t] (#2)</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>laying-poultry[t] (#1)</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>mutton-&amp;-goats[t] (#2)</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pigs[t] (#2)</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>dairy-mutton-&amp;-goats[t] (#3)</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>other-animals[t] (#3)</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>broilers-poultry[t] (#2)</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dairy-cattle[t] (#3)</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>non-dairy-cattle[t] (#3)</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>laying-poultry[t] (#2)</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>mutton-&amp;-goats[t] (#3)</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>pigs[t] (#3)</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>dairy-mutton-&amp;-goats[t] (#4)</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>laying-poultry[t] (#3)</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>dairy-cattle[t] (#4)</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>other-animals[t] (#4)</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>broilers-poultry[t] (#3)</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>non-dairy-cattle[t] (#4)</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>pigs[t] (#4)</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>mutton-&amp;-goats[t] (#4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eu27</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.36432345449562253</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19713812483815274</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.2212453270876722E-15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.282205362201135</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.440892098500626E-16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.19713812483815296</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-8.881784197001252E-16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-5.551115123125783E-16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.4432899320127035E-15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-8.881784197001252E-16</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.12491696756374826</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1971381248381534</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1.1102230246251565E-15</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.12491696756374804</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.19713812483815296</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-9.992007221626409E-16</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-9.992007221626409E-16</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.12491696756374804</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.19713812483815296</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.2212453270876722E-15</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.1249169675637467</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Row1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-9.992007221626409E-16</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-8.881784197001252E-16</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-1.2212453270876722E-15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1323.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>row ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>animal-fats[t]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>barley-and-products[t]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>bovine-meat[t]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>cake-others[t]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>cereal-others[t]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cocoa-beans-and-products[t]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>eggs[t]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>fish-seafood[t]</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>fruits-excluding-wine[t]</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>maize-and-products[t]</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>meat-other[t]</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>molasses[t]</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>mutton-&amp;-goat-meat[t]</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>offals[t]</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>oilcrop-others[t]</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>olive-oil[t]</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>olives-including-preserved[t]</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>palm-cake[t]</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>palm-oil[t]</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>palm[t]</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>poultry-meat[t]</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pulses[t]</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>rape-and-mustard-cake[t]</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>rape-and-mustard-oil[t]</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>rape-and-mustardseed[t]</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>rye-and-products[t]</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>soyabean-cake[t]</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>soyabean-oil[t]</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>soyabeans[t]</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>starchy-roots[t]</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>sugar-&amp;-sweeteners[t]</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>sugar-crops[t]</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>sunflower-seed[t]</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>sunflowerseed-cake[t]</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>sunflowerseed-oil[t]</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>tea-including-mate[t]</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>vegetable-oil-others[t]</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>vegetables[t]</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>wheat-and-products[t]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eu27</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.10603065503310871</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.06388925204341722</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.10603065503310749</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.06418724226663874</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.09044466121282757</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.10603065503310816</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.06804884650088716</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.10553088081017159</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.10603065503310838</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Row1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.08314345031836679</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.08314345031836712</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.08314345031836712</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.0831434503183669</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.08314345031836712</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.08314345031836679</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.08314345031836645</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.07772913680232696</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.08367907309974254</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.08314345031836723</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.08314345031836679</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.08314345031836823</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.0831434503183669</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.0831434503183669</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.08314345031836712</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.08314345031836667</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.08314345031836667</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.08568160343059184</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.0831434503183669</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.0831434503183669</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.08314345031836656</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.08314345031836712</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.08314345031836712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1324.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AR3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>row ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>barley-and-products[t]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>beer[t]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>beverages-alcoholic[t]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>beverages-fermented[t]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>cake-others[t]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cereal-others[t]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>cocoa-beans-and-products[t]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>coffee-and-products[t]</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>fibre-crops[t]</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>fruits-excluding-wine[t]</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>maize-and-products[t]</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>molasses[t]</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>nuts-and-products[t]</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oilcrop-others[t]</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>olive-oil[t]</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>olives-including-preserved[t]</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>palm[t]</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>palm-cake[t]</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>palm-oil[t]</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>pulses[t]</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>rape-and-mustard-cake[t]</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>rape-and-mustard-oil[t]</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>rape-and-mustardseed[t]</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>rice-milled-equivalent[t]</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>rubber[t]</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>rye-and-products[t]</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>soyabean-cake[t]</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>soyabean-oil[t]</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>soyabeans[t]</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>starchy-roots[t]</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>sugar-&amp;-sweeteners[t]</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>sugar-crops[t]</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>sunflower-seed[t]</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>sunflowerseed-cake[t]</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>sunflowerseed-oil[t]</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>tea-including-mate[t]</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>tobacco[t]</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>vegetable-oil-others[t]</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>vegetables[t]</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>wheat-and-products[t]</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>wine[t]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eu27</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.03271129143151519</v>
+      </c>
+      <c r="D2" t="n">
+        <v>379.291930547415</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.547252821573421</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.4963130287627273</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0018654267416846615</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.1441214409570486</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.03432632423985238</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.4835451184536831</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.05000222434474444</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11637842730523973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.683651363825907</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.10583560064059527</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.1980077883480766</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.13398602075609256</v>
+      </c>
+      <c r="R2" t="n">
+        <v>13.921061110266969</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.9551702146194972</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.05188404387029433</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.445596432166189</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.009339959556299626</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.02100652475034781</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.5269167873187985</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.14268129698192278</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.4130337412749694</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.5000238762597996</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.054281259554716854</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.09146312636719256</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2004832832437744</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.07375466641570616</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.00803857654843032</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.436818314960344</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.04698965133471922</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.04982547596097586</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0818102682376578</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.2649475253792757</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.3596583006091316</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.6139650446829257</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>8.7663455093264</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.02570587636576982</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.05875152898025626</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>4.427238639477488</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Row1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05315145382390374</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.7554585825905535</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.5246225157788929</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.004981027652484538</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.2819611780126956</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.021455670744435773</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.15040846692985688</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.4431604256840487</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9468175105144698</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.25310026904247374</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.14061790697366572</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.06386529153483855</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.024117269127723273</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.21987452220071557</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.044943483219747504</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.949703605892745</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.015890190847586028</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.04229425339616988</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.17155137699376777</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.02181566963512538</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.38859500109927514</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.5000000000000002</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.02214992186444209</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.056064928152461224</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.09893301399908738</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.010085170280195177</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.02180963576475592</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3.268505045787112</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.017145285006398447</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.26839565212303285</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.11318588116883754</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.5598240141671182</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.06610028118546041</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.6392940020246997</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>495.26680767895624</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.03590976406483015</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.09179134419552404</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1325.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y3"/>
   <sheetViews>
@@ -1497,7 +3083,7 @@
         <v>0.0</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.1102230246251565E-15</v>
+        <v>-9.992007221626409E-16</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0</v>
@@ -1608,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1293.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1326.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -1845,7 +3431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1294.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1327.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1887,10 +3473,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.03320910134111543</v>
+        <v>-0.024261005825252924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05599936394272387</v>
+        <v>0.06143753033673982</v>
       </c>
     </row>
     <row r="3">
@@ -1905,10 +3491,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.007481157173589992</v>
+        <v>-0.014846069157115394</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0015120616726993497</v>
+        <v>-0.01037296153621603</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +3503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1295.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1328.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -1999,13 +3585,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>151.28430045037214</v>
+        <v>3.0247854002677125E8</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08721458094251366</v>
+        <v>-0.08131078347898113</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.08718064147447058</v>
+        <v>-0.08127661996905611</v>
       </c>
       <c r="F2" t="n">
         <v>-4.440892098500626E-16</v>
@@ -2020,13 +3606,13 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08983292683158006</v>
+        <v>0.08863872005529538</v>
       </c>
       <c r="K2" t="n">
-        <v>0.805842329495351</v>
+        <v>0.81164072031136</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2102614911571743</v>
+        <v>0.20893746351582654</v>
       </c>
     </row>
     <row r="3">
@@ -2062,13 +3648,13 @@
         <v>-4.440892098500626E-16</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.08799699993471877</v>
+        <v>-0.08032613855839299</v>
       </c>
       <c r="K3" t="n">
         <v>-0.08138711316981495</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.007036641557156997</v>
+        <v>0.001602883521123033</v>
       </c>
     </row>
   </sheetData>
@@ -2077,1208 +3663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1296.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>row ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>cropland[tC]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>meadows-and-pastures[tC]</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>forest-land[tC]</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>wetland[tC]</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>artificial-land[tC]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>other-land[tC]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Row0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eu27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.04929000839123354</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25170361270751473</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.1276522922935165</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.40212111050586996</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.07775774560324789</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.04125155686221005</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.00950937974071897</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.0075117008183404055</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.054699274100924455</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.2951858395535716E-4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.0639356173847148E-7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1297.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>row ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dairy-mutton-&amp;-goats[lsu]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>laying-poultry[lsu]</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>dairy-cattle[lsu]</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>other-animals[lsu]</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>broilers-poultry[lsu]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>non-dairy-cattle[lsu]</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pigs[lsu]</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>mutton-&amp;-goats[lsu]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Row0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eu27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.3913445141389199</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.016395932558842752</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.10973933480682108</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.1754699085610265</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.010727883810950689</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.016033470280737205</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.033258752329006325</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.10915359341856834</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.013497106739607023</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.031912371127142625</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.04120981175284699</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.003497278148203886</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.011479341354053041</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.014074841385827819</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.014506613110546462</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1298.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>row ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dairy-mutton-&amp;-goats[t]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>other-animals[t]</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pigs[t]</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>dairy-cattle[t]</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>non-dairy-cattle[t]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>mutton-&amp;-goats[t]</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>dairy-mutton-&amp;-goats[t] (#1)</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>other-animals[t] (#1)</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>broilers-poultry[t]</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>dairy-cattle[t] (#1)</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>non-dairy-cattle[t] (#1)</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>laying-poultry[t]</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>mutton-&amp;-goats[t] (#1)</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>pigs[t] (#1)</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>dairy-mutton-&amp;-goats[t] (#2)</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>other-animals[t] (#2)</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>broilers-poultry[t] (#1)</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>dairy-cattle[t] (#2)</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>non-dairy-cattle[t] (#2)</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>laying-poultry[t] (#1)</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>mutton-&amp;-goats[t] (#2)</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>pigs[t] (#2)</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>dairy-mutton-&amp;-goats[t] (#3)</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>other-animals[t] (#3)</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>broilers-poultry[t] (#2)</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>dairy-cattle[t] (#3)</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>non-dairy-cattle[t] (#3)</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>laying-poultry[t] (#2)</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>mutton-&amp;-goats[t] (#3)</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>pigs[t] (#3)</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>dairy-mutton-&amp;-goats[t] (#4)</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>laying-poultry[t] (#3)</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>dairy-cattle[t] (#4)</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>other-animals[t] (#4)</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>broilers-poultry[t] (#3)</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>non-dairy-cattle[t] (#4)</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>pigs[t] (#4)</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>mutton-&amp;-goats[t] (#4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Row0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eu27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.36432345449562253</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19713812483815274</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1.2212453270876722E-15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.282205362201135</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.440892098500626E-16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.19713812483815296</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-8.881784197001252E-16</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-5.551115123125783E-16</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-1.4432899320127035E-15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-8.881784197001252E-16</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.12491696756374826</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1971381248381534</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-1.1102230246251565E-15</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.12491696756374804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.19713812483815296</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-9.992007221626409E-16</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-9.992007221626409E-16</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.12491696756374804</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>-1.1102230246251565E-16</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.19713812483815296</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>-1.2212453270876722E-15</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.1249169675637467</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-9.992007221626409E-16</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-8.881784197001252E-16</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-1.1102230246251565E-16</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-1.2212453270876722E-15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1299.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>row ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>animal-fats[t]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>barley-and-products[t]</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>bovine-meat[t]</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>cake-others[t]</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>cereal-others[t]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>cocoa-beans-and-products[t]</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>eggs[t]</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>fish-seafood[t]</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>fruits-excluding-wine[t]</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>maize-and-products[t]</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>meat-other[t]</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>molasses[t]</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>mutton-&amp;-goat-meat[t]</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>offals[t]</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>oilcrop-others[t]</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>olive-oil[t]</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>olives-including-preserved[t]</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>palm-cake[t]</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>palm-oil[t]</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>palm[t]</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>poultry-meat[t]</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>pulses[t]</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>rape-and-mustard-cake[t]</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>rape-and-mustard-oil[t]</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>rape-and-mustardseed[t]</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>rye-and-products[t]</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>soyabean-cake[t]</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>soyabean-oil[t]</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>soyabeans[t]</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>starchy-roots[t]</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>sugar-&amp;-sweeteners[t]</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>sugar-crops[t]</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>sunflower-seed[t]</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>sunflowerseed-cake[t]</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>sunflowerseed-oil[t]</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>tea-including-mate[t]</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>vegetable-oil-others[t]</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>vegetables[t]</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>wheat-and-products[t]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Row0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eu27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.10603065503310871</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-0.06388925204341722</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.10603065503310749</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-0.06418724226663874</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-0.09044466121282757</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-0.10603065503310816</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>-0.06804884650088716</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>-0.10553088081017159</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.08314345031836679</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.0831434503183669</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.08314345031836679</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.08314345031836645</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-0.07772913680232696</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.08367907309974254</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.08314345031836723</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-0.08314345031836679</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>-0.08314345031836823</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>-0.0831434503183669</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>-0.0831434503183669</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-0.08314345031836667</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-0.08314345031836667</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>-0.08568160343059184</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>-0.0831434503183669</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>-0.0831434503183669</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>-0.08314345031836656</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1300.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1329.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3299,207 +3684,32 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>barley-and-products[t]</t>
+          <t>cropland[tC]</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>beer[t]</t>
+          <t>meadows-and-pastures[tC]</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>beverages-alcoholic[t]</t>
+          <t>forest-land[tC]</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>beverages-fermented[t]</t>
+          <t>wetland[tC]</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>cake-others[t]</t>
+          <t>artificial-land[tC]</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>cereal-others[t]</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>cocoa-beans-and-products[t]</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>coffee-and-products[t]</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>fibre-crops[t]</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>fruits-excluding-wine[t]</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>maize-and-products[t]</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>molasses[t]</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>nuts-and-products[t]</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>oilcrop-others[t]</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>olive-oil[t]</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>olives-including-preserved[t]</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>palm[t]</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>palm-cake[t]</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>palm-oil[t]</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>pulses[t]</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>rape-and-mustard-cake[t]</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>rape-and-mustard-oil[t]</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>rape-and-mustardseed[t]</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>rice-milled-equivalent[t]</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>rubber[t]</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>rye-and-products[t]</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>soyabean-cake[t]</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>soyabean-oil[t]</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>soyabeans[t]</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>starchy-roots[t]</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>sugar-&amp;-sweeteners[t]</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>sugar-crops[t]</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>sunflower-seed[t]</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>sunflowerseed-cake[t]</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>sunflowerseed-oil[t]</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>tea-including-mate[t]</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>tobacco[t]</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>vegetable-oil-others[t]</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>vegetables[t]</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>wheat-and-products[t]</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>wine[t]</t>
+          <t>other-land[tC]</t>
         </is>
       </c>
     </row>
@@ -3515,127 +3725,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.03271129143151519</v>
+        <v>0.05106043636017121</v>
       </c>
       <c r="D2" t="n">
-        <v>379.291930547415</v>
+        <v>0.23798312500713625</v>
       </c>
       <c r="E2" t="n">
-        <v>2.547252821573421</v>
+        <v>-0.12630425549653956</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>0.40212111050586996</v>
       </c>
       <c r="G2" t="n">
-        <v>0.13155667045532105</v>
+        <v>0.07775774560324789</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0018654267416846615</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.1441214409570486</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.03432632423985238</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.4835451184536831</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-0.05000222434474444</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.11637842730523973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.683651363825907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.10583560064059527</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.1980077883480766</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.13398602075609256</v>
-      </c>
-      <c r="R2" t="n">
-        <v>13.921061110266969</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-0.9551702146194972</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.05188404387029433</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3.445596432166189</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-0.009339959556299626</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-0.02100652475034781</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.5269167873187985</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>18.484101815408646</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.4130337412749694</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-0.5000238762597996</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.054281259554716854</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.09146312636719256</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.2004832832437744</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>12.847318631060133</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-0.00803857654843032</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>5.436818314960344</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.04698965133471922</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12.652944038929292</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.0818102682376578</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.2649475253792757</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>-0.3596583006091316</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>-0.6139650446829257</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>13.030998940988528</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>-0.02570587636576982</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.05875152898025626</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>4.427238639477488</v>
+        <v>0.04125155686221005</v>
       </c>
     </row>
     <row r="3">
@@ -3650,126 +3755,21 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05315145382390374</v>
+        <v>-5.98092797510219E-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>-2.2495203477745918E-8</v>
       </c>
       <c r="E3" t="n">
-        <v>5.7554585825905535</v>
+        <v>6.119231972245842E-7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>3.2951858395535716E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3048957845500355</v>
+        <v>-1.0639356173847148E-7</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.004981027652484538</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.2819611780126956</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.021455670744435773</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.15040846692985688</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.4431604256840487</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.9468175105144698</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.25310026904247374</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.14061790697366572</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.06386529153483855</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.024117269127723273</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.21987452220071557</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.044943483219747504</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6.949703605892745</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-0.015890190847586028</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.04229425339616988</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.17155137699376777</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>13.731958288818086</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.38859500109927514</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>-0.5000000000000002</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.02214992186444209</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.056064928152461224</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-0.09893301399908738</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11.042249826885733</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-0.02180963576475592</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>3.268505045787112</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.017145285006398447</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2.1514346311623997</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.11318588116883754</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.5598240141671182</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>-0.06610028118546041</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>-0.6392940020246997</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>94.64192892343424</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>-0.03590976406483015</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.09179134419552404</v>
-      </c>
-      <c r="AQ3" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
+++ b/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
@@ -15,17 +15,17 @@
   <sheets>
     <sheet name="cal_supply-processing" r:id="rId17" sheetId="854"/>
     <sheet name="cal_unfccc-land-based-..." r:id="rId25" sheetId="880"/>
-    <sheet name="cal_supply-food" r:id="rId28" sheetId="1308"/>
-    <sheet name="cal_production-process..." r:id="rId16" sheetId="1309"/>
-    <sheet name="cal_production-livestock" r:id="rId18" sheetId="1321"/>
-    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="1322"/>
-    <sheet name="cal_supply-feed" r:id="rId20" sheetId="1323"/>
-    <sheet name="cal_supply-crops" r:id="rId24" sheetId="1324"/>
-    <sheet name="cal_production-crops" r:id="rId26" sheetId="1325"/>
-    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="1326"/>
-    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="1327"/>
-    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="1328"/>
-    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="1329"/>
+    <sheet name="cal_supply-food" r:id="rId28" sheetId="1330"/>
+    <sheet name="cal_production-process..." r:id="rId16" sheetId="1331"/>
+    <sheet name="cal_production-livestock" r:id="rId18" sheetId="1332"/>
+    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="1333"/>
+    <sheet name="cal_supply-feed" r:id="rId20" sheetId="1334"/>
+    <sheet name="cal_supply-crops" r:id="rId24" sheetId="1335"/>
+    <sheet name="cal_production-crops" r:id="rId26" sheetId="1336"/>
+    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="1337"/>
+    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="1338"/>
+    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="1339"/>
+    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="1340"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -556,7 +556,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1308.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1330.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AP3"/>
   <sheetViews>
@@ -1035,7 +1035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1309.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1331.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:X3"/>
   <sheetViews>
@@ -1316,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1321.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1332.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1454,7 +1454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1322.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1333.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -1922,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1323.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1334.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AP3"/>
   <sheetViews>
@@ -2401,7 +2401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1324.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1335.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AR3"/>
   <sheetViews>
@@ -2704,7 +2704,7 @@
         <v>1.5269167873187985</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.14268129698192278</v>
+        <v>-0.19386789227315293</v>
       </c>
       <c r="Z2" t="n">
         <v>0.4130337412749694</v>
@@ -2722,7 +2722,7 @@
         <v>0.2004832832437744</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.07375466641570616</v>
+        <v>-0.19010503629316033</v>
       </c>
       <c r="AF2" t="n">
         <v>-0.00803857654843032</v>
@@ -2839,7 +2839,7 @@
         <v>0.17155137699376777</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.02181566963512538</v>
+        <v>-0.05824890535811289</v>
       </c>
       <c r="Z3" t="n">
         <v>0.38859500109927514</v>
@@ -2857,7 +2857,7 @@
         <v>-0.09893301399908738</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.010085170280195177</v>
+        <v>-0.05141415284722384</v>
       </c>
       <c r="AF3" t="n">
         <v>-0.02180963576475592</v>
@@ -2902,7 +2902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1325.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1336.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y3"/>
   <sheetViews>
@@ -3083,7 +3083,7 @@
         <v>0.0</v>
       </c>
       <c r="P2" t="n">
-        <v>-9.992007221626409E-16</v>
+        <v>-1.1102230246251565E-15</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0</v>
@@ -3194,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1326.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1337.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -3431,7 +3431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1327.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1338.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3476,7 +3476,7 @@
         <v>-0.024261005825252924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06143753033673982</v>
+        <v>0.05209817033754138</v>
       </c>
     </row>
     <row r="3">
@@ -3503,7 +3503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1328.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1339.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -3585,13 +3585,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.0247854002677125E8</v>
+        <v>151.28430045037214</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08131078347898113</v>
+        <v>-0.08721458094251366</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.08127661996905611</v>
+        <v>-0.08718064147447058</v>
       </c>
       <c r="F2" t="n">
         <v>-4.440892098500626E-16</v>
@@ -3609,7 +3609,7 @@
         <v>0.08863872005529538</v>
       </c>
       <c r="K2" t="n">
-        <v>0.81164072031136</v>
+        <v>0.805842329495351</v>
       </c>
       <c r="L2" t="n">
         <v>0.20893746351582654</v>
@@ -3663,7 +3663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1329.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1340.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
+++ b/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
@@ -15,17 +15,17 @@
   <sheets>
     <sheet name="cal_supply-processing" r:id="rId17" sheetId="854"/>
     <sheet name="cal_unfccc-land-based-..." r:id="rId25" sheetId="880"/>
-    <sheet name="cal_supply-food" r:id="rId28" sheetId="1330"/>
-    <sheet name="cal_production-process..." r:id="rId16" sheetId="1331"/>
-    <sheet name="cal_production-livestock" r:id="rId18" sheetId="1332"/>
-    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="1333"/>
-    <sheet name="cal_supply-feed" r:id="rId20" sheetId="1334"/>
-    <sheet name="cal_supply-crops" r:id="rId24" sheetId="1335"/>
-    <sheet name="cal_production-crops" r:id="rId26" sheetId="1336"/>
-    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="1337"/>
-    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="1338"/>
-    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="1339"/>
-    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="1340"/>
+    <sheet name="cal_supply-food" r:id="rId28" sheetId="2098"/>
+    <sheet name="cal_production-process..." r:id="rId16" sheetId="2099"/>
+    <sheet name="cal_production-livestock" r:id="rId18" sheetId="2100"/>
+    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="2101"/>
+    <sheet name="cal_supply-feed" r:id="rId20" sheetId="2102"/>
+    <sheet name="cal_supply-crops" r:id="rId24" sheetId="2103"/>
+    <sheet name="cal_production-crops" r:id="rId26" sheetId="2104"/>
+    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="2105"/>
+    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="2106"/>
+    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="2107"/>
+    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="2108"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -556,7 +556,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1330.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2098.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AP3"/>
   <sheetViews>
@@ -1035,7 +1035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1331.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2099.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:X3"/>
   <sheetViews>
@@ -1056,42 +1056,42 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>beer[t]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>beverages-alcoholic[t]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>beverages-fermented[t]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>wine[t]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>coffee-and-products[t]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>tea-including-mate[t]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>cocoa-beans-and-products[t]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>sugar-&amp;-sweeteners[t]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>wine[t]</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>beer[t]</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>beverages-fermented[t]</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>beverages-alcoholic[t]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>coffee-and-products[t]</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>cocoa-beans-and-products[t]</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>tea-including-mate[t]</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -1172,28 +1172,28 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>-0.04000748828977574</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.04275760941444451</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.06326196806663376</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.033397781806031146</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.033116914327626534</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.11261716218922158</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
         <v>-0.08135492466819694</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.033397781806031146</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.04000748828977574</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.06326196806663376</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.04275760941444451</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.033116914327626534</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.11261716218922158</v>
       </c>
       <c r="K2" t="n">
         <v>-0.05259403993325962</v>
@@ -1247,28 +1247,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>-0.042901042715904</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.042804819666827254</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.03196115132241262</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.042877085687884176</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
         <v>-0.04546804605336752</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.042877085687884176</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.042901042715904</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.03196115132241262</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.042804819666827254</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
       </c>
       <c r="K3" t="n">
         <v>-0.08599024122076604</v>
@@ -1316,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1332.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1454,7 +1454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1333.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -1922,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1334.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AP3"/>
   <sheetViews>
@@ -2401,7 +2401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1335.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AR3"/>
   <sheetViews>
@@ -2902,7 +2902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1336.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y3"/>
   <sheetViews>
@@ -2928,14 +2928,14 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>tea-including-mate[t]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>cocoa-beans-and-products[t]</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>tea-including-mate[t]</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>tobacco[t]</t>
@@ -2953,82 +2953,82 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>barley-and-products[t]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>cereal-others[t]</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>wheat-and-products[t]</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>barley-and-products[t]</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>rye-and-products[t]</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>maize-and-products[t]</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>rye-and-products[t]</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>cereal-others[t]</t>
-        </is>
-      </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>pulses[t]</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>sugar-crops[t]</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>vegetables[t]</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>fruits-excluding-wine[t]</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>starchy-roots[t]</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>olives-including-preserved[t]</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>oilcrop-others[t]</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>sunflower-seed[t]</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>soyabeans[t]</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>rape-and-mustardseed[t]</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>sunflower-seed[t]</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>soyabeans[t]</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>palm[t]</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>oilcrop-others[t]</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>olives-including-preserved[t]</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>fruits-excluding-wine[t]</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>vegetables[t]</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>starchy-roots[t]</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>pulses[t]</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>sugar-crops[t]</t>
         </is>
       </c>
     </row>
@@ -3062,31 +3062,31 @@
         <v>0.05161819832436465</v>
       </c>
       <c r="I2" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-9.992007221626409E-16</v>
+      </c>
+      <c r="K2" t="n">
         <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-4.440892098500626E-16</v>
       </c>
       <c r="L2" t="n">
         <v>-1.1102230246251565E-16</v>
       </c>
       <c r="M2" t="n">
-        <v>-9.992007221626409E-16</v>
+        <v>-4.440892098500626E-16</v>
       </c>
       <c r="N2" t="n">
-        <v>2.220446049250313E-16</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="O2" t="n">
         <v>0.0</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.1102230246251565E-15</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0</v>
+        <v>-6.661338147750939E-16</v>
       </c>
       <c r="R2" t="n">
         <v>-4.440892098500626E-16</v>
@@ -3095,16 +3095,16 @@
         <v>-4.440892098500626E-16</v>
       </c>
       <c r="T2" t="n">
-        <v>-6.661338147750939E-16</v>
+        <v>-4.440892098500626E-16</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>-4.440892098500626E-16</v>
+        <v>-1.1102230246251565E-15</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.220446049250313E-16</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="X2" t="n">
         <v>0.0</v>
@@ -3140,52 +3140,52 @@
         <v>0.2509496458794316</v>
       </c>
       <c r="I3" t="n">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.440892098500626E-16</v>
+      </c>
+      <c r="K3" t="n">
         <v>-6.661338147750939E-16</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.440892098500626E-16</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-9.992007221626409E-16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-9.992007221626409E-16</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
       <c r="X3" t="n">
-        <v>-2.220446049250313E-16</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -3194,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1337.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -3230,72 +3230,72 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>barley-and-products[ha]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>cereal-others[ha]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>wheat-and-products[ha]</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>barley-and-products[ha]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>rye-and-products[ha]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>maize-and-products[ha]</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>rye-and-products[ha]</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>cereal-others[ha]</t>
-        </is>
-      </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>pulses[ha]</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>sugar-crops[ha]</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>vegetables[ha]</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>starchy-roots[ha]</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>olives-including-preserved[ha]</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oilcrop-others[ha]</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>sunflower-seed[ha]</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>soyabeans[ha]</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>rape-and-mustardseed[ha]</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>sunflower-seed[ha]</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>soyabeans[ha]</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>oilcrop-others[ha]</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>olives-including-preserved[ha]</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>vegetables[ha]</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>starchy-roots[ha]</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>pulses[ha]</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>sugar-crops[ha]</t>
         </is>
       </c>
     </row>
@@ -3320,46 +3320,46 @@
         <v>-0.3342757712744998</v>
       </c>
       <c r="F2" t="n">
+        <v>-0.022542352781669828</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.8138156898010382</v>
+      </c>
+      <c r="H2" t="n">
         <v>-0.024606876580121173</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.022542352781669828</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.020678964915024745</v>
       </c>
       <c r="I2" t="n">
         <v>-0.020729422022438437</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.8138156898010382</v>
+        <v>-0.020678964915024745</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.9904661749196673</v>
+        <v>-0.21721738888020803</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.09871546681520715</v>
+        <v>-0.21004368071034574</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.10195906008251332</v>
+        <v>-0.27811792555727477</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.9986488800701694</v>
+        <v>-0.2082372239516792</v>
       </c>
       <c r="O2" t="n">
         <v>-0.09480583556892563</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.27811792555727477</v>
+        <v>-0.9986488800701694</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2082372239516792</v>
+        <v>-0.09871546681520715</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.21721738888020803</v>
+        <v>-0.10195906008251332</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.21004368071034574</v>
+        <v>-0.9904661749196673</v>
       </c>
     </row>
     <row r="3">
@@ -3383,46 +3383,46 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
+        <v>-0.020323246588580424</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.12271874918570858</v>
+      </c>
+      <c r="H3" t="n">
         <v>-0.020056130176822506</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.020323246588580424</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
       </c>
       <c r="I3" t="n">
         <v>-0.021109318845420333</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.12271874918570858</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0</v>
+        <v>-0.1762490606040057</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>-0.1972105622111351</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0</v>
+        <v>-0.20147054096703987</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>-0.20000000000000062</v>
       </c>
       <c r="O3" t="n">
         <v>0.0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.20147054096703987</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.20000000000000062</v>
+        <v>0.0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1762490606040057</v>
+        <v>0.0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1972105622111351</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -3431,7 +3431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1338.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3503,7 +3503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1339.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -3633,7 +3633,7 @@
         <v>-0.05515473596600606</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05500622724525894</v>
+        <v>-0.055006227245259054</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -3663,7 +3663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1340.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
+++ b/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
@@ -15,17 +15,17 @@
   <sheets>
     <sheet name="cal_supply-processing" r:id="rId17" sheetId="854"/>
     <sheet name="cal_unfccc-land-based-..." r:id="rId25" sheetId="880"/>
-    <sheet name="cal_supply-food" r:id="rId28" sheetId="2098"/>
-    <sheet name="cal_production-process..." r:id="rId16" sheetId="2099"/>
-    <sheet name="cal_production-livestock" r:id="rId18" sheetId="2100"/>
-    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="2101"/>
-    <sheet name="cal_supply-feed" r:id="rId20" sheetId="2102"/>
-    <sheet name="cal_supply-crops" r:id="rId24" sheetId="2103"/>
-    <sheet name="cal_production-crops" r:id="rId26" sheetId="2104"/>
-    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="2105"/>
-    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="2106"/>
-    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="2107"/>
-    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="2108"/>
+    <sheet name="cal_supply-food" r:id="rId28" sheetId="2120"/>
+    <sheet name="cal_production-process..." r:id="rId16" sheetId="2121"/>
+    <sheet name="cal_production-livestock" r:id="rId18" sheetId="2122"/>
+    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="2123"/>
+    <sheet name="cal_supply-feed" r:id="rId20" sheetId="2124"/>
+    <sheet name="cal_supply-crops" r:id="rId24" sheetId="2131"/>
+    <sheet name="cal_production-crops" r:id="rId26" sheetId="2132"/>
+    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="2133"/>
+    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="2134"/>
+    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="2135"/>
+    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="2136"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -556,9 +556,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2098.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2120.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,253 +779,124 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2366346628029079</v>
+        <v>-0.18839648975549317</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.089503157456017</v>
+        <v>-0.07910944920671703</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1356859180119795</v>
+        <v>-0.09991813382067394</v>
       </c>
       <c r="F2" t="n">
-        <v>2.6372334948060745</v>
+        <v>3.6675643745182978</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.08135492466819638</v>
+        <v>-0.04546804605336752</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.14320660977390987</v>
+        <v>-0.18837049883363066</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.04000748828977585</v>
+        <v>-0.04290104271590389</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.04275760941444451</v>
+        <v>-0.042804819666827254</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.06326196806663376</v>
+        <v>-0.04704982982351169</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.05259403993325962</v>
+        <v>-0.08599024122076604</v>
       </c>
       <c r="N2" t="n">
-        <v>0.37103917483082416</v>
+        <v>-0.042912523839078176</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.021902163886890147</v>
+        <v>-0.04302505039434534</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.04378298983237772</v>
+        <v>-0.042911087182173846</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.15698282446065237</v>
+        <v>-0.1884604975737646</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.046569990663016925</v>
+        <v>-0.08734525400946369</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.02130691336507995</v>
+        <v>-0.051847915868690975</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.10097291331017189</v>
+        <v>-0.08614439035712707</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0018319938376626377</v>
+        <v>-0.024452017375933277</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.07981504957453167</v>
+        <v>-0.08579977265851702</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.024019862558625982</v>
+        <v>-0.0239941593619466</v>
       </c>
       <c r="X2" t="n">
-        <v>0.023791844137962537</v>
+        <v>-0.042647187584958</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.04482478181200844</v>
+        <v>0.1110396073108948</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0989521499818381</v>
+        <v>-0.08601668002118246</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.1019671498303133</v>
+        <v>-0.08601571889403703</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.020397322974881393</v>
+        <v>-0.02443963706672625</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.024319112258177844</v>
+        <v>-0.02450561650465166</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.11832218354991597</v>
+        <v>0.07377747837433768</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.2034388628666256</v>
+        <v>-0.1884249425802409</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.05024574003704041</v>
+        <v>-0.023343677449468747</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.020643005000046122</v>
+        <v>-0.024626701312260857</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.08955173622829826</v>
+        <v>0.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.14195068795950605</v>
+        <v>-0.13288025286409666</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.02868884162533003</v>
+        <v>0.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.020388388564183124</v>
+        <v>-0.024556820698844795</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1126171621892218</v>
+        <v>-0.042718875948468904</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.13089047002279297</v>
+        <v>-0.14746479198402762</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.18595947008316116</v>
+        <v>-0.18837769652717185</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.033397781806031035</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.18839648975549317</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.07910944920671703</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.09991813382067394</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.6675643745182978</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.04546804605336752</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.18837049883363066</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.04290104271590389</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.042804819666827254</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.04704982982351169</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.08599024122076604</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.042912523839078176</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.04302505039434534</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-0.042911087182173846</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.1884604975737646</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.08734525400946369</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.051847915868690975</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.08614439035712707</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-0.024452017375933277</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-0.08579977265851702</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-0.0239941593619466</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-0.042647187584958</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.1110396073108948</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>-0.08601668002118246</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>-0.08601571889403703</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>-0.02443963706672625</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-0.02450561650465166</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.07377747837433768</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-0.1884249425802409</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-0.023343677449468747</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>-0.024626701312260857</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>-0.13288025286409666</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>-0.024556820698844795</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>-0.042718875948468904</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>-0.14746479198402762</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>-0.18837769652717185</v>
-      </c>
-      <c r="AO3" t="n">
         <v>-0.042877085687884064</v>
       </c>
     </row>
@@ -1035,9 +906,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2099.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1168,145 +1039,70 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.04000748828977574</v>
+        <v>-0.042901042715904</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04275760941444451</v>
+        <v>-0.042804819666827254</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06326196806663376</v>
+        <v>-0.03196115132241262</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.033397781806031146</v>
+        <v>-0.042877085687884176</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.033116914327626534</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.11261716218922158</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.08135492466819694</v>
+        <v>-0.04546804605336752</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.05259403993325962</v>
+        <v>-0.08599024122076604</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.10097291331017155</v>
+        <v>-0.08614439035712751</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0989521499818381</v>
+        <v>-0.08601668002118235</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.10196714983031341</v>
+        <v>-0.08601571889403714</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.046569990663016925</v>
+        <v>-0.08734525400946358</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.02130691336507995</v>
+        <v>-0.05184791586869075</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.04378298983237783</v>
+        <v>-0.042911087182173846</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.07981504957453167</v>
+        <v>-0.08579977265851713</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.08950315745601667</v>
+        <v>-0.07910944920671703</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
       </c>
       <c r="U2" t="n">
-        <v>-6.661338147750939E-16</v>
+        <v>-4.440892098500626E-16</v>
       </c>
       <c r="V2" t="n">
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.042901042715904</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.042804819666827254</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.03196115132241262</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.042877085687884176</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.04546804605336752</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.08599024122076604</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.08614439035712751</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.08601668002118235</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.08601571889403714</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.08734525400946358</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-0.05184791586869075</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.042911087182173846</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.08579977265851713</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.07910944920671703</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
         <v>-4.440892098500626E-16</v>
       </c>
     </row>
@@ -1316,9 +1112,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2100.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1384,67 +1180,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.3913445141389199</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.016395932558842752</v>
+        <v>0.013497106739607023</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.10973933480682108</v>
+        <v>-0.031912371127142625</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1754699085610265</v>
+        <v>0.04120981175284699</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.010727883810950689</v>
+        <v>-0.003497278148203886</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.016033470280737205</v>
+        <v>0.011479341354053041</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.033258752329006325</v>
+        <v>-0.014074841385827819</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.10915359341856834</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.013497106739607023</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.031912371127142625</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.04120981175284699</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.003497278148203886</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.011479341354053041</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.014074841385827819</v>
-      </c>
-      <c r="J3" t="n">
         <v>0.014506613110546462</v>
       </c>
     </row>
@@ -1454,9 +1214,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1672,247 +1432,121 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.36432345449562253</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19713812483815274</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="F2" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-6.661338147750939E-16</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="G2" t="n">
-        <v>-1.2212453270876722E-15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.282205362201135</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.440892098500626E-16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.19713812483815296</v>
-      </c>
       <c r="K2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-9.992007221626409E-16</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="S2" t="n">
         <v>-8.881784197001252E-16</v>
       </c>
-      <c r="L2" t="n">
-        <v>-5.551115123125783E-16</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-1.4432899320127035E-15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-8.881784197001252E-16</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.12491696756374826</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1971381248381534</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="U2" t="n">
         <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-1.1102230246251565E-15</v>
       </c>
       <c r="V2" t="n">
         <v>-4.440892098500626E-16</v>
       </c>
       <c r="W2" t="n">
-        <v>0.12491696756374804</v>
+        <v>0.0</v>
       </c>
       <c r="X2" t="n">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>-4.440892098500626E-16</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.19713812483815296</v>
-      </c>
       <c r="AA2" t="n">
-        <v>-9.992007221626409E-16</v>
+        <v>-6.661338147750939E-16</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0</v>
+        <v>-6.661338147750939E-16</v>
       </c>
       <c r="AC2" t="n">
-        <v>-9.992007221626409E-16</v>
+        <v>-1.2212453270876722E-15</v>
       </c>
       <c r="AD2" t="n">
         <v>-4.440892098500626E-16</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.12491696756374804</v>
+        <v>0.0</v>
       </c>
       <c r="AF2" t="n">
         <v>0.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.1102230246251565E-16</v>
+        <v>0.0</v>
       </c>
       <c r="AH2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="AI2" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.19713812483815296</v>
-      </c>
       <c r="AK2" t="n">
+        <v>-4.440892098500626E-16</v>
+      </c>
+      <c r="AL2" t="n">
         <v>-6.661338147750939E-16</v>
       </c>
-      <c r="AL2" t="n">
-        <v>-1.2212453270876722E-15</v>
-      </c>
       <c r="AM2" t="n">
-        <v>-4.440892098500626E-16</v>
+        <v>0.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1249169675637467</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-9.992007221626409E-16</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-8.881784197001252E-16</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-1.1102230246251565E-16</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-1.2212453270876722E-15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN3" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1922,9 +1556,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2145,253 +1779,124 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836679</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836712</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.10603065503310871</v>
+        <v>-0.08314345031836712</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.0831434503183669</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836712</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836679</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836645</v>
       </c>
       <c r="O2" t="n">
         <v>0.0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.07772913680232696</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08367907309974254</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.06388925204341722</v>
+        <v>0.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.10603065503310749</v>
+        <v>-0.08314345031836723</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.06418724226663874</v>
+        <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.09044466121282757</v>
+        <v>0.0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836679</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836823</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>0.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.0831434503183669</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.0831434503183669</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.10603065503310816</v>
+        <v>-0.08314345031836712</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>0.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836667</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836667</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08568160343059184</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.0831434503183669</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.0831434503183669</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836656</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.06804884650088716</v>
+        <v>0.0</v>
       </c>
       <c r="AL2" t="n">
         <v>0.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.10553088081017159</v>
+        <v>0.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.10603065503310838</v>
+        <v>-0.08314345031836712</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.10603065503310838</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.08314345031836679</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.0831434503183669</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.08314345031836679</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.08314345031836645</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-0.07772913680232696</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.08367907309974254</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.08314345031836723</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-0.08314345031836679</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>-0.08314345031836823</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>-0.0831434503183669</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>-0.0831434503183669</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-0.08314345031836667</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-0.08314345031836667</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>-0.08568160343059184</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>-0.0831434503183669</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>-0.0831434503183669</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>-0.08314345031836656</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>-0.08314345031836712</v>
-      </c>
-      <c r="AO3" t="n">
         <v>-0.08314345031836712</v>
       </c>
     </row>
@@ -2401,9 +1906,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2131.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2634,265 +2139,130 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.03271129143151519</v>
+        <v>0.05315145382390374</v>
       </c>
       <c r="D2" t="n">
-        <v>379.291930547415</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.547252821573421</v>
+        <v>5.7554585825905535</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4963130287627273</v>
+        <v>-0.5246225157788929</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0018654267416846615</v>
+        <v>-0.004981027652484538</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1441214409570486</v>
+        <v>-0.2819611780126956</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.03432632423985238</v>
+        <v>0.021455670744435773</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4835451184536831</v>
+        <v>-0.5</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.05000222434474444</v>
+        <v>-0.15040846692985688</v>
       </c>
       <c r="M2" t="n">
-        <v>0.11637842730523973</v>
+        <v>2.4431604256840487</v>
       </c>
       <c r="N2" t="n">
-        <v>0.683651363825907</v>
+        <v>0.9468175105144698</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.10583560064059527</v>
+        <v>-0.25310026904247374</v>
       </c>
       <c r="P2" t="n">
-        <v>1.1980077883480766</v>
+        <v>0.14061790697366572</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.13398602075609256</v>
+        <v>0.06386529153483855</v>
       </c>
       <c r="R2" t="n">
-        <v>13.921061110266969</v>
+        <v>-0.03784644764131517</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.9551702146194972</v>
+        <v>-0.21987452220071557</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05188404387029433</v>
+        <v>0.044943483219747504</v>
       </c>
       <c r="U2" t="n">
-        <v>3.445596432166189</v>
+        <v>6.949703605892745</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.009339959556299626</v>
+        <v>-0.015890190847586028</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02100652475034781</v>
+        <v>0.04229425339616988</v>
       </c>
       <c r="X2" t="n">
-        <v>1.5269167873187985</v>
+        <v>0.17155137699376777</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.19386789227315293</v>
+        <v>-0.05824890535811289</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4130337412749694</v>
+        <v>0.38859500109927514</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.5000238762597996</v>
+        <v>-0.5000000000000002</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.054281259554716854</v>
+        <v>0.02214992186444209</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.09146312636719256</v>
+        <v>0.056064928152461224</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2004832832437744</v>
+        <v>-0.09893301399908738</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.19010503629316033</v>
+        <v>-0.05141415284722384</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.00803857654843032</v>
+        <v>-0.02180963576475592</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.436818314960344</v>
+        <v>3.268505045787112</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.04698965133471922</v>
+        <v>0.017145285006398447</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.04982547596097586</v>
+        <v>-0.26839565212303285</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0818102682376578</v>
+        <v>0.11318588116883754</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.2649475253792757</v>
+        <v>0.5598240141671182</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.3596583006091316</v>
+        <v>-0.06610028118546041</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.6139650446829257</v>
+        <v>-0.6392940020246997</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.7663455093264</v>
+        <v>495.26680767895624</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.02570587636576982</v>
+        <v>-0.03590976406483015</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.05875152898025626</v>
+        <v>0.09179134419552404</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4.427238639477488</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05315145382390374</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.7554585825905535</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.5246225157788929</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.004981027652484538</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.2819611780126956</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.021455670744435773</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.15040846692985688</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.4431604256840487</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.9468175105144698</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.25310026904247374</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.14061790697366572</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.06386529153483855</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.024117269127723273</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.21987452220071557</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.044943483219747504</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6.949703605892745</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-0.015890190847586028</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.04229425339616988</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.17155137699376777</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>-0.05824890535811289</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.38859500109927514</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>-0.5000000000000002</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.02214992186444209</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.056064928152461224</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-0.09893301399908738</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-0.05141415284722384</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-0.02180963576475592</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>3.268505045787112</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.017145285006398447</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>-0.26839565212303285</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.11318588116883754</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.5598240141671182</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>-0.06610028118546041</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>-0.6392940020246997</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>495.26680767895624</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>-0.03590976406483015</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.09179134419552404</v>
-      </c>
-      <c r="AQ3" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2902,9 +2272,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2132.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3040,7 +2410,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3053,46 +2423,46 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13083182683229588</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05161819832436465</v>
+        <v>0.2509496458794316</v>
       </c>
       <c r="I2" t="n">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.440892098500626E-16</v>
+      </c>
+      <c r="K2" t="n">
         <v>-6.661338147750939E-16</v>
       </c>
-      <c r="J2" t="n">
-        <v>-9.992007221626409E-16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
       <c r="L2" t="n">
-        <v>-1.1102230246251565E-16</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.440892098500626E-16</v>
+        <v>0.0</v>
       </c>
       <c r="N2" t="n">
         <v>-2.220446049250313E-16</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.661338147750939E-16</v>
       </c>
       <c r="R2" t="n">
-        <v>-4.440892098500626E-16</v>
+        <v>-9.992007221626409E-16</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.440892098500626E-16</v>
+        <v>0.0</v>
       </c>
       <c r="T2" t="n">
         <v>-4.440892098500626E-16</v>
@@ -3101,90 +2471,12 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.1102230246251565E-15</v>
+        <v>0.0</v>
       </c>
       <c r="W2" t="n">
         <v>2.220446049250313E-16</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.2509496458794316</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.440892098500626E-16</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-2.220446049250313E-16</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-9.992007221626409E-16</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="X3" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3194,9 +2486,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2133.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3307,121 +2599,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3735134703374673</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3342757712744998</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.022542352781669828</v>
+        <v>-0.020323246588580424</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8138156898010382</v>
+        <v>-0.12271874918570858</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.024606876580121173</v>
+        <v>-0.020056130176822506</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.020729422022438437</v>
+        <v>-0.021109318845420333</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.020678964915024745</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.21721738888020803</v>
+        <v>-0.1762490606040057</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.21004368071034574</v>
+        <v>-0.1972105622111351</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.27811792555727477</v>
+        <v>-0.20147054096703987</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2082372239516792</v>
+        <v>-0.20000000000000062</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.09480583556892563</v>
+        <v>0.0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.9986488800701694</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09871546681520715</v>
+        <v>0.0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.10195906008251332</v>
+        <v>0.0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.9904661749196673</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.020323246588580424</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.12271874918570858</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.020056130176822506</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.021109318845420333</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.1762490606040057</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.1972105622111351</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.20147054096703987</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.20000000000000062</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3431,9 +2660,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3469,31 +2698,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.024261005825252924</v>
+        <v>-0.014846069157115394</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05209817033754138</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.014846069157115394</v>
-      </c>
-      <c r="D3" t="n">
         <v>-0.01037296153621603</v>
       </c>
     </row>
@@ -3503,9 +2714,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3581,79 +2792,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>151.28430045037214</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08721458094251366</v>
+        <v>-0.05515473596600606</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.08718064147447058</v>
+        <v>-0.055006227245259054</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.440892098500626E-16</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
         <v>-6.661338147750939E-16</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.220446049250313E-16</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0</v>
+        <v>-4.440892098500626E-16</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08863872005529538</v>
+        <v>-0.08032613855839299</v>
       </c>
       <c r="K2" t="n">
-        <v>0.805842329495351</v>
+        <v>-0.08138711316981495</v>
       </c>
       <c r="L2" t="n">
-        <v>0.20893746351582654</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.05515473596600606</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.055006227245259054</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-6.661338147750939E-16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-4.440892098500626E-16</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.08032613855839299</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.08138711316981495</v>
-      </c>
-      <c r="L3" t="n">
         <v>0.001602883521123033</v>
       </c>
     </row>
@@ -3663,7 +2832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2136.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3721,55 +2890,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eu27</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.05106043636017121</v>
+        <v>-5.98092797510219E-10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23798312500713625</v>
+        <v>-2.2495203477745918E-8</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.12630425549653956</v>
+        <v>6.119231972245842E-7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.40212111050586996</v>
+        <v>3.2951858395535716E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07775774560324789</v>
+        <v>-1.0639356173847148E-7</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04125155686221005</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Row1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-5.98092797510219E-10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-2.2495203477745918E-8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.119231972245842E-7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.2951858395535716E-4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.0639356173847148E-7</v>
-      </c>
-      <c r="H3" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
+++ b/data/united-kingdom/calibration/factors/ARISE_calibration-factors.xlsx
@@ -15,17 +15,17 @@
   <sheets>
     <sheet name="cal_supply-processing" r:id="rId17" sheetId="854"/>
     <sheet name="cal_unfccc-land-based-..." r:id="rId25" sheetId="880"/>
-    <sheet name="cal_supply-food" r:id="rId28" sheetId="2120"/>
-    <sheet name="cal_production-process..." r:id="rId16" sheetId="2121"/>
-    <sheet name="cal_production-livestock" r:id="rId18" sheetId="2122"/>
-    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="2123"/>
-    <sheet name="cal_supply-feed" r:id="rId20" sheetId="2124"/>
-    <sheet name="cal_supply-crops" r:id="rId24" sheetId="2131"/>
-    <sheet name="cal_production-crops" r:id="rId26" sheetId="2132"/>
-    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="2133"/>
-    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="2134"/>
-    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="2135"/>
-    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="2136"/>
+    <sheet name="cal_supply-food" r:id="rId28" sheetId="2137"/>
+    <sheet name="cal_production-process..." r:id="rId16" sheetId="2138"/>
+    <sheet name="cal_production-livestock" r:id="rId18" sheetId="2139"/>
+    <sheet name="cal_emission-livestock" r:id="rId22" sheetId="2140"/>
+    <sheet name="cal_supply-feed" r:id="rId20" sheetId="2141"/>
+    <sheet name="cal_supply-crops" r:id="rId24" sheetId="2142"/>
+    <sheet name="cal_production-crops" r:id="rId26" sheetId="2143"/>
+    <sheet name="cal_production-harvest..." r:id="rId19" sheetId="2144"/>
+    <sheet name="cal_land-use-agricultu..." r:id="rId21" sheetId="2145"/>
+    <sheet name="cal_unfccc-crf-3" r:id="rId23" sheetId="2146"/>
+    <sheet name="cal_unfccc-carbon-stocks" r:id="rId27" sheetId="2147"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -556,7 +556,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2120.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AP2"/>
   <sheetViews>
@@ -906,7 +906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2138.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:X2"/>
   <sheetViews>
@@ -1112,7 +1112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2139.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1214,7 +1214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2140.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AO2"/>
   <sheetViews>
@@ -1556,7 +1556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2141.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AP2"/>
   <sheetViews>
@@ -1906,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2142.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AR2"/>
   <sheetViews>
@@ -2272,7 +2272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2143.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y2"/>
   <sheetViews>
@@ -2486,7 +2486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2144.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -2660,7 +2660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2145.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2714,7 +2714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2146.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2832,7 +2832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2136.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2147.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
